--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2538.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2538.xlsx
@@ -354,7 +354,7 @@
         <v>2.788073020417511</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>1.387075032601518</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2538.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2538.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.454944688060781</v>
+        <v>1.749289631843567</v>
       </c>
       <c r="B1">
-        <v>2.788073020417511</v>
+        <v>2.033302545547485</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>2.578598499298096</v>
       </c>
       <c r="D1">
-        <v>1.387075032601518</v>
+        <v>4.2105393409729</v>
       </c>
       <c r="E1">
-        <v>1.223865876280533</v>
+        <v>2.939725399017334</v>
       </c>
     </row>
   </sheetData>
